--- a/scheduleData.xlsx
+++ b/scheduleData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>09:00</t>
   </si>
@@ -23,16 +23,16 @@
     <t>08:30</t>
   </si>
   <si>
-    <t>11:30</t>
+    <t>09:25</t>
   </si>
   <si>
     <t>10:00</t>
   </si>
   <si>
-    <t>10:28</t>
-  </si>
-  <si>
-    <t>09:26</t>
+    <t>11:35</t>
+  </si>
+  <si>
+    <t>09:49</t>
   </si>
   <si>
     <t>14:00</t>
@@ -41,16 +41,22 @@
     <t>14:18</t>
   </si>
   <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>12:15</t>
+  </si>
+  <si>
     <t>10:18</t>
   </si>
   <si>
     <t>14:50</t>
   </si>
   <si>
-    <t>11:00</t>
-  </si>
-  <si>
     <t>11:21</t>
+  </si>
+  <si>
+    <t>10:26</t>
   </si>
 </sst>
 </file>
@@ -95,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -129,7 +135,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>180.0</v>
+        <v>55.0</v>
       </c>
       <c r="E2" t="n">
         <v>1.0</v>
@@ -146,10 +152,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>28.0</v>
+        <v>95.0</v>
       </c>
       <c r="E3" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -163,10 +169,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>26.0</v>
+        <v>49.0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -188,53 +194,87 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>18.0</v>
+        <v>75.0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>50.0</v>
+        <v>18.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
         <v>21.0</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9" t="n">
         <v>3.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>

--- a/scheduleData.xlsx
+++ b/scheduleData.xlsx
@@ -12,51 +12,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>08:34</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>09:43</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>11:13</t>
+  </si>
+  <si>
+    <t>11:14</t>
+  </si>
+  <si>
+    <t>11:18</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>14:18</t>
+  </si>
+  <si>
+    <t>14:19</t>
+  </si>
+  <si>
+    <t>14:28</t>
+  </si>
   <si>
     <t>09:00</t>
   </si>
   <si>
+    <t>09:26</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>10:26</t>
+  </si>
+  <si>
+    <t>10:18</t>
+  </si>
+  <si>
+    <t>10:27</t>
+  </si>
+  <si>
+    <t>10:41</t>
+  </si>
+  <si>
+    <t>11:11</t>
+  </si>
+  <si>
+    <t>10:05</t>
+  </si>
+  <si>
     <t>10:06</t>
   </si>
   <si>
-    <t>08:30</t>
-  </si>
-  <si>
-    <t>09:25</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>11:35</t>
-  </si>
-  <si>
-    <t>09:49</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>14:18</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>12:15</t>
-  </si>
-  <si>
-    <t>10:18</t>
-  </si>
-  <si>
-    <t>14:50</t>
-  </si>
-  <si>
-    <t>11:21</t>
-  </si>
-  <si>
-    <t>10:26</t>
+    <t>10:14</t>
   </si>
 </sst>
 </file>
@@ -101,7 +125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -109,7 +133,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -118,15 +142,15 @@
         <v>1</v>
       </c>
       <c r="D1" t="n">
-        <v>66.0</v>
+        <v>4.0</v>
       </c>
       <c r="E1" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -135,15 +159,15 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>55.0</v>
+        <v>13.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -152,27 +176,27 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>95.0</v>
+        <v>13.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
         <v>4.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>49.0</v>
-      </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -180,10 +204,10 @@
         <v>5.0</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
         <v>18.0</v>
@@ -194,33 +218,33 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>75.0</v>
+        <v>9.0</v>
       </c>
       <c r="E6" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
       <c r="E7" t="n">
         <v>2.0</v>
@@ -228,53 +252,104 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>50.0</v>
+        <v>26.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="E9" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.0</v>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>

--- a/scheduleData.xlsx
+++ b/scheduleData.xlsx
@@ -12,7 +12,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>09:26</t>
+  </si>
+  <si>
+    <t>09:27</t>
+  </si>
+  <si>
+    <t>09:32</t>
+  </si>
+  <si>
+    <t>09:33</t>
+  </si>
+  <si>
+    <t>09:38</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>10:26</t>
+  </si>
+  <si>
+    <t>10:27</t>
+  </si>
+  <si>
+    <t>10:41</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>11:11</t>
+  </si>
+  <si>
+    <t>10:18</t>
+  </si>
   <si>
     <t>08:30</t>
   </si>
@@ -26,9 +65,6 @@
     <t>09:43</t>
   </si>
   <si>
-    <t>11:00</t>
-  </si>
-  <si>
     <t>11:13</t>
   </si>
   <si>
@@ -48,30 +84,6 @@
   </si>
   <si>
     <t>14:28</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>09:26</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>10:26</t>
-  </si>
-  <si>
-    <t>10:18</t>
-  </si>
-  <si>
-    <t>10:27</t>
-  </si>
-  <si>
-    <t>10:41</t>
-  </si>
-  <si>
-    <t>11:11</t>
   </si>
   <si>
     <t>10:05</t>
@@ -125,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -133,7 +145,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -142,15 +154,15 @@
         <v>1</v>
       </c>
       <c r="D1" t="n">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
       <c r="E1" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -159,15 +171,15 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.0</v>
+        <v>18.0</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -176,15 +188,15 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="E3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -193,15 +205,15 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -210,15 +222,15 @@
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -227,128 +239,162 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="E6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" t="n">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
       <c r="D8" t="n">
-        <v>26.0</v>
+        <v>4.0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="E9" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
       <c r="D10" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>65.0</v>
+        <v>18.0</v>
       </c>
       <c r="E12" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>14.0</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="n">
         <v>8.0</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E15" t="n">
         <v>3.0</v>
       </c>
     </row>

--- a/scheduleData.xlsx
+++ b/scheduleData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>09:00</t>
   </si>
@@ -92,7 +92,10 @@
     <t>10:06</t>
   </si>
   <si>
-    <t>10:14</t>
+    <t>10:19</t>
+  </si>
+  <si>
+    <t>10:10</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -383,19 +386,53 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="E15" t="n">
         <v>3.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/scheduleData.xlsx
+++ b/scheduleData.xlsx
@@ -12,90 +12,282 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>09:26</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>06:57</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>07:45</t>
+  </si>
+  <si>
+    <t>07:46</t>
+  </si>
+  <si>
+    <t>08:11</t>
+  </si>
+  <si>
+    <t>08:12</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>08:31</t>
+  </si>
+  <si>
+    <t>08:57</t>
+  </si>
+  <si>
+    <t>08:58</t>
   </si>
   <si>
     <t>09:27</t>
   </si>
   <si>
-    <t>09:32</t>
-  </si>
-  <si>
-    <t>09:33</t>
-  </si>
-  <si>
-    <t>09:38</t>
+    <t>09:28</t>
+  </si>
+  <si>
+    <t>09:53</t>
+  </si>
+  <si>
+    <t>09:54</t>
+  </si>
+  <si>
+    <t>10:23</t>
+  </si>
+  <si>
+    <t>10:24</t>
+  </si>
+  <si>
+    <t>10:46</t>
+  </si>
+  <si>
+    <t>10:47</t>
+  </si>
+  <si>
+    <t>11:19</t>
+  </si>
+  <si>
+    <t>11:20</t>
+  </si>
+  <si>
+    <t>11:40</t>
+  </si>
+  <si>
+    <t>11:41</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>12:01</t>
+  </si>
+  <si>
+    <t>12:37</t>
+  </si>
+  <si>
+    <t>12:38</t>
+  </si>
+  <si>
+    <t>13:21</t>
+  </si>
+  <si>
+    <t>13:22</t>
+  </si>
+  <si>
+    <t>13:48</t>
+  </si>
+  <si>
+    <t>13:49</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>14:01</t>
+  </si>
+  <si>
+    <t>14:32</t>
+  </si>
+  <si>
+    <t>14:33</t>
+  </si>
+  <si>
+    <t>15:14</t>
+  </si>
+  <si>
+    <t>15:15</t>
+  </si>
+  <si>
+    <t>15:52</t>
+  </si>
+  <si>
+    <t>15:53</t>
+  </si>
+  <si>
+    <t>16:12</t>
+  </si>
+  <si>
+    <t>16:13</t>
+  </si>
+  <si>
+    <t>16:41</t>
+  </si>
+  <si>
+    <t>16:42</t>
+  </si>
+  <si>
+    <t>17:20</t>
+  </si>
+  <si>
+    <t>17:21</t>
+  </si>
+  <si>
+    <t>17:50</t>
+  </si>
+  <si>
+    <t>17:51</t>
+  </si>
+  <si>
+    <t>18:33</t>
+  </si>
+  <si>
+    <t>18:34</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>19:01</t>
+  </si>
+  <si>
+    <t>19:29</t>
+  </si>
+  <si>
+    <t>07:30</t>
+  </si>
+  <si>
+    <t>09:09</t>
+  </si>
+  <si>
+    <t>09:10</t>
+  </si>
+  <si>
+    <t>09:42</t>
+  </si>
+  <si>
+    <t>09:43</t>
   </si>
   <si>
     <t>10:00</t>
   </si>
   <si>
-    <t>10:26</t>
-  </si>
-  <si>
-    <t>10:27</t>
-  </si>
-  <si>
-    <t>10:41</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>11:11</t>
-  </si>
-  <si>
-    <t>10:18</t>
-  </si>
-  <si>
-    <t>08:30</t>
-  </si>
-  <si>
-    <t>08:34</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>09:43</t>
-  </si>
-  <si>
-    <t>11:13</t>
-  </si>
-  <si>
-    <t>11:14</t>
-  </si>
-  <si>
-    <t>11:18</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>14:18</t>
-  </si>
-  <si>
-    <t>14:19</t>
-  </si>
-  <si>
-    <t>14:28</t>
-  </si>
-  <si>
-    <t>10:05</t>
-  </si>
-  <si>
-    <t>10:06</t>
-  </si>
-  <si>
-    <t>10:19</t>
-  </si>
-  <si>
-    <t>10:10</t>
+    <t>10:01</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>10:16</t>
+  </si>
+  <si>
+    <t>10:50</t>
+  </si>
+  <si>
+    <t>10:51</t>
+  </si>
+  <si>
+    <t>11:16</t>
+  </si>
+  <si>
+    <t>11:17</t>
+  </si>
+  <si>
+    <t>11:37</t>
+  </si>
+  <si>
+    <t>11:38</t>
+  </si>
+  <si>
+    <t>11:57</t>
+  </si>
+  <si>
+    <t>11:58</t>
+  </si>
+  <si>
+    <t>12:47</t>
+  </si>
+  <si>
+    <t>12:48</t>
+  </si>
+  <si>
+    <t>13:32</t>
+  </si>
+  <si>
+    <t>13:33</t>
+  </si>
+  <si>
+    <t>13:53</t>
+  </si>
+  <si>
+    <t>13:54</t>
+  </si>
+  <si>
+    <t>14:05</t>
+  </si>
+  <si>
+    <t>14:06</t>
+  </si>
+  <si>
+    <t>14:23</t>
+  </si>
+  <si>
+    <t>14:24</t>
+  </si>
+  <si>
+    <t>15:01</t>
+  </si>
+  <si>
+    <t>15:02</t>
+  </si>
+  <si>
+    <t>15:29</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>15:50</t>
+  </si>
+  <si>
+    <t>15:51</t>
+  </si>
+  <si>
+    <t>16:32</t>
+  </si>
+  <si>
+    <t>16:33</t>
+  </si>
+  <si>
+    <t>16:54</t>
+  </si>
+  <si>
+    <t>16:55</t>
+  </si>
+  <si>
+    <t>17:11</t>
+  </si>
+  <si>
+    <t>17:12</t>
+  </si>
+  <si>
+    <t>17:45</t>
   </si>
 </sst>
 </file>
@@ -140,7 +332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -148,7 +340,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>4.0</v>
+        <v>57.0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -157,7 +349,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="E1" t="n">
         <v>2.0</v>
@@ -165,7 +357,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17.0</v>
+        <v>181.0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -174,7 +366,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>5.0</v>
+        <v>45.0</v>
       </c>
       <c r="E2" t="n">
         <v>2.0</v>
@@ -182,7 +374,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>18.0</v>
+        <v>93.0</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -191,7 +383,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="E3" t="n">
         <v>2.0</v>
@@ -199,7 +391,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12.0</v>
+        <v>236.0</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -208,7 +400,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
       <c r="E4" t="n">
         <v>2.0</v>
@@ -216,7 +408,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.0</v>
+        <v>260.0</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -225,7 +417,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>14.0</v>
+        <v>26.0</v>
       </c>
       <c r="E5" t="n">
         <v>2.0</v>
@@ -233,7 +425,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11.0</v>
+        <v>65.0</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -242,7 +434,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>11.0</v>
+        <v>29.0</v>
       </c>
       <c r="E6" t="n">
         <v>2.0</v>
@@ -250,189 +442,699 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.0</v>
+        <v>209.0</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="E7" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>4.0</v>
+        <v>29.0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13.0</v>
+        <v>247.0</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>13.0</v>
+        <v>22.0</v>
       </c>
       <c r="E9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.0</v>
+        <v>127.0</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>13.0</v>
+        <v>32.0</v>
       </c>
       <c r="E10" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.0</v>
+        <v>196.0</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>4.0</v>
+        <v>20.0</v>
       </c>
       <c r="E11" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.0</v>
+        <v>234.0</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="E12" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10.0</v>
+        <v>66.0</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>9.0</v>
+        <v>36.0</v>
       </c>
       <c r="E13" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.0</v>
+        <v>275.0</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>65.0</v>
+        <v>43.0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>19.0</v>
+        <v>244.0</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
-        <v>12.0</v>
+        <v>26.0</v>
       </c>
       <c r="E15" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14.0</v>
+        <v>233.0</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="E16" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>261.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="n">
         <v>20.0</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.0</v>
+      <c r="E34" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>

--- a/scheduleData.xlsx
+++ b/scheduleData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="202">
   <si>
     <t>06:30</t>
   </si>
@@ -288,6 +288,336 @@
   </si>
   <si>
     <t>17:45</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>06:23</t>
+  </si>
+  <si>
+    <t>07:38</t>
+  </si>
+  <si>
+    <t>07:39</t>
+  </si>
+  <si>
+    <t>08:10</t>
+  </si>
+  <si>
+    <t>09:07</t>
+  </si>
+  <si>
+    <t>09:08</t>
+  </si>
+  <si>
+    <t>09:49</t>
+  </si>
+  <si>
+    <t>09:50</t>
+  </si>
+  <si>
+    <t>10:18</t>
+  </si>
+  <si>
+    <t>10:19</t>
+  </si>
+  <si>
+    <t>10:44</t>
+  </si>
+  <si>
+    <t>10:45</t>
+  </si>
+  <si>
+    <t>11:28</t>
+  </si>
+  <si>
+    <t>11:29</t>
+  </si>
+  <si>
+    <t>12:12</t>
+  </si>
+  <si>
+    <t>12:13</t>
+  </si>
+  <si>
+    <t>12:45</t>
+  </si>
+  <si>
+    <t>12:46</t>
+  </si>
+  <si>
+    <t>12:59</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>13:36</t>
+  </si>
+  <si>
+    <t>13:37</t>
+  </si>
+  <si>
+    <t>14:04</t>
+  </si>
+  <si>
+    <t>14:40</t>
+  </si>
+  <si>
+    <t>14:41</t>
+  </si>
+  <si>
+    <t>15:18</t>
+  </si>
+  <si>
+    <t>15:19</t>
+  </si>
+  <si>
+    <t>16:36</t>
+  </si>
+  <si>
+    <t>16:37</t>
+  </si>
+  <si>
+    <t>17:36</t>
+  </si>
+  <si>
+    <t>17:37</t>
+  </si>
+  <si>
+    <t>18:11</t>
+  </si>
+  <si>
+    <t>18:12</t>
+  </si>
+  <si>
+    <t>18:57</t>
+  </si>
+  <si>
+    <t>18:58</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>19:31</t>
+  </si>
+  <si>
+    <t>19:56</t>
+  </si>
+  <si>
+    <t>19:57</t>
+  </si>
+  <si>
+    <t>20:44</t>
+  </si>
+  <si>
+    <t>07:35</t>
+  </si>
+  <si>
+    <t>07:36</t>
+  </si>
+  <si>
+    <t>08:02</t>
+  </si>
+  <si>
+    <t>08:03</t>
+  </si>
+  <si>
+    <t>08:38</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>09:51</t>
+  </si>
+  <si>
+    <t>09:52</t>
+  </si>
+  <si>
+    <t>10:29</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>11:18</t>
+  </si>
+  <si>
+    <t>11:51</t>
+  </si>
+  <si>
+    <t>11:52</t>
+  </si>
+  <si>
+    <t>12:17</t>
+  </si>
+  <si>
+    <t>12:18</t>
+  </si>
+  <si>
+    <t>13:46</t>
+  </si>
+  <si>
+    <t>13:47</t>
+  </si>
+  <si>
+    <t>14:43</t>
+  </si>
+  <si>
+    <t>14:44</t>
+  </si>
+  <si>
+    <t>15:16</t>
+  </si>
+  <si>
+    <t>15:44</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>16:04</t>
+  </si>
+  <si>
+    <t>16:05</t>
+  </si>
+  <si>
+    <t>16:43</t>
+  </si>
+  <si>
+    <t>17:09</t>
+  </si>
+  <si>
+    <t>17:10</t>
+  </si>
+  <si>
+    <t>17:56</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>18:44</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>12:41</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>16:08</t>
+  </si>
+  <si>
+    <t>16:09</t>
+  </si>
+  <si>
+    <t>17:43</t>
+  </si>
+  <si>
+    <t>17:44</t>
+  </si>
+  <si>
+    <t>19:16</t>
+  </si>
+  <si>
+    <t>20:49</t>
+  </si>
+  <si>
+    <t>12:10</t>
+  </si>
+  <si>
+    <t>14:36</t>
+  </si>
+  <si>
+    <t>14:37</t>
+  </si>
+  <si>
+    <t>15:55</t>
+  </si>
+  <si>
+    <t>15:56</t>
+  </si>
+  <si>
+    <t>17:17</t>
+  </si>
+  <si>
+    <t>17:18</t>
+  </si>
+  <si>
+    <t>19:43</t>
+  </si>
+  <si>
+    <t>12:08</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>15:03</t>
+  </si>
+  <si>
+    <t>16:18</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>18:15</t>
+  </si>
+  <si>
+    <t>18:16</t>
+  </si>
+  <si>
+    <t>19:27</t>
+  </si>
+  <si>
+    <t>19:28</t>
+  </si>
+  <si>
+    <t>20:29</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>14:12</t>
+  </si>
+  <si>
+    <t>14:13</t>
+  </si>
+  <si>
+    <t>15:24</t>
+  </si>
+  <si>
+    <t>15:25</t>
+  </si>
+  <si>
+    <t>16:44</t>
+  </si>
+  <si>
+    <t>17:58</t>
+  </si>
+  <si>
+    <t>18:56</t>
+  </si>
+  <si>
+    <t>17:57</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>17:01</t>
+  </si>
+  <si>
+    <t>19:18</t>
   </si>
 </sst>
 </file>
@@ -332,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1137,6 +1467,1196 @@
         <v>6.0</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" t="s">
+        <v>141</v>
+      </c>
+      <c r="D75" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>147</v>
+      </c>
+      <c r="C79" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" t="s">
+        <v>148</v>
+      </c>
+      <c r="D80" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D82" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" t="s">
+        <v>155</v>
+      </c>
+      <c r="D85" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86" t="s">
+        <v>42</v>
+      </c>
+      <c r="D86" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" t="s">
+        <v>158</v>
+      </c>
+      <c r="D87" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" t="s">
+        <v>160</v>
+      </c>
+      <c r="D88" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>161</v>
+      </c>
+      <c r="C89" t="s">
+        <v>162</v>
+      </c>
+      <c r="D89" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" t="s">
+        <v>164</v>
+      </c>
+      <c r="D90" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>165</v>
+      </c>
+      <c r="C91" t="s">
+        <v>166</v>
+      </c>
+      <c r="D91" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" t="s">
+        <v>168</v>
+      </c>
+      <c r="D92" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" t="s">
+        <v>170</v>
+      </c>
+      <c r="D93" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>128</v>
+      </c>
+      <c r="C94" t="s">
+        <v>171</v>
+      </c>
+      <c r="D94" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" t="s">
+        <v>172</v>
+      </c>
+      <c r="D95" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" t="s">
+        <v>173</v>
+      </c>
+      <c r="D96" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>174</v>
+      </c>
+      <c r="C97" t="s">
+        <v>175</v>
+      </c>
+      <c r="D97" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>176</v>
+      </c>
+      <c r="C98" t="s">
+        <v>177</v>
+      </c>
+      <c r="D98" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>178</v>
+      </c>
+      <c r="C99" t="s">
+        <v>47</v>
+      </c>
+      <c r="D99" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" t="s">
+        <v>179</v>
+      </c>
+      <c r="D100" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>142</v>
+      </c>
+      <c r="C101" t="s">
+        <v>180</v>
+      </c>
+      <c r="D101" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>181</v>
+      </c>
+      <c r="C102" t="s">
+        <v>80</v>
+      </c>
+      <c r="D102" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>182</v>
+      </c>
+      <c r="C103" t="s">
+        <v>183</v>
+      </c>
+      <c r="D103" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" t="s">
+        <v>185</v>
+      </c>
+      <c r="D104" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>186</v>
+      </c>
+      <c r="C105" t="s">
+        <v>187</v>
+      </c>
+      <c r="D105" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>188</v>
+      </c>
+      <c r="C106" t="s">
+        <v>189</v>
+      </c>
+      <c r="D106" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108" t="s">
+        <v>191</v>
+      </c>
+      <c r="D108" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>192</v>
+      </c>
+      <c r="C109" t="s">
+        <v>193</v>
+      </c>
+      <c r="D109" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>194</v>
+      </c>
+      <c r="C110" t="s">
+        <v>157</v>
+      </c>
+      <c r="D110" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>195</v>
+      </c>
+      <c r="C111" t="s">
+        <v>196</v>
+      </c>
+      <c r="D111" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>161</v>
+      </c>
+      <c r="C112" t="s">
+        <v>197</v>
+      </c>
+      <c r="D112" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>163</v>
+      </c>
+      <c r="C113" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" t="n">
+        <v>254.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114" t="s">
+        <v>198</v>
+      </c>
+      <c r="D114" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>199</v>
+      </c>
+      <c r="C115" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>112</v>
+      </c>
+      <c r="C116" t="s">
+        <v>184</v>
+      </c>
+      <c r="D116" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>200</v>
+      </c>
+      <c r="C117" t="s">
+        <v>201</v>
+      </c>
+      <c r="D117" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
